--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-domain-VitalSigns-Observation-bodytemp</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/no-domain-VitalSigns-Observation-bodytemp</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -480,7 +480,7 @@
     <t>confoundingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>daysSinceMenstruationStart</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsDaysSinceMenstruationStartExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsDaysSinceMenstruationStartExtension}
 </t>
   </si>
   <si>
@@ -513,7 +513,7 @@
     <t>bodyExposure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBodyExposureExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBodyExposureExtension}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>activeHeating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsActiveHeatingExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsActiveHeatingExtension}
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsBodyTempBodySiteValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsBodyTempBodySiteValueSet</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -2442,7 +2442,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodytemp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
